--- a/Excel/Movement.xlsx
+++ b/Excel/Movement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\2020  - 2\캡스톤디자인\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CapstoneDesign_NetWOD\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD947C33-1499-4217-8E35-0915EFA9DFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD8ED9-3736-44CF-A554-A05389037B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" xr2:uid="{725DFA9A-3A00-4AB8-A42F-725444E877A5}"/>
+    <workbookView xWindow="9204" yWindow="5244" windowWidth="4956" windowHeight="5244" xr2:uid="{725DFA9A-3A00-4AB8-A42F-725444E877A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Overhead Squarts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Barbell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead Squats</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,301 +621,301 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -924,5 +924,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Movement.xlsx
+++ b/Excel/Movement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CapstoneDesign_NetWOD\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD8ED9-3736-44CF-A554-A05389037B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DEFDFA-609A-4E78-9D67-03CF4851F1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9204" yWindow="5244" windowWidth="4956" windowHeight="5244" xr2:uid="{725DFA9A-3A00-4AB8-A42F-725444E877A5}"/>
+    <workbookView xWindow="-1980" yWindow="1668" windowWidth="4956" windowHeight="5244" xr2:uid="{725DFA9A-3A00-4AB8-A42F-725444E877A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Equipment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <t>Thrusters</t>
   </si>
   <si>
-    <t>Deadlifts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hang Power Cleans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,19 +71,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bench</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Clean</t>
   </si>
   <si>
-    <t>Push Presses</t>
-  </si>
-  <si>
-    <t>Burpees</t>
-  </si>
-  <si>
     <t>Body</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,9 +95,6 @@
     <t>Sit-Ups</t>
   </si>
   <si>
-    <t>Walking Lunge Steps</t>
-  </si>
-  <si>
     <t>Back Extensions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +166,14 @@
   </si>
   <si>
     <t>Overhead Squats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bench Press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,16 +609,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA864765-425D-4E89-B39A-C8E6430221CD}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -640,23 +631,23 @@
     </row>
     <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -664,7 +655,7 @@
     </row>
     <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -672,23 +663,23 @@
     </row>
     <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -696,7 +687,7 @@
     </row>
     <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -704,7 +695,7 @@
     </row>
     <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -712,15 +703,15 @@
     </row>
     <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
@@ -728,15 +719,15 @@
     </row>
     <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -744,183 +735,162 @@
     </row>
     <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
+    <sortCondition ref="A2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A33:B33">
+  <conditionalFormatting sqref="A31:B31">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
